--- a/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F563B8E9-0B14-42E7-9150-0146E86F3570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44F2A1D-493B-4350-900B-F0BCE23FDAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA10818C-12C2-413B-977F-75211ED74F97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FC3C6D4-25A8-460A-B901-EF8401BF3C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>97,71%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,49 +194,55 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,55 +251,55 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +365,109 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1655FF-3FB3-4AF7-BE07-40506C17CE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53112B91-BA34-4EF7-8E10-1E0949D2E009}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1328,10 +1334,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1340,13 +1346,13 @@
         <v>92625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,13 +1367,13 @@
         <v>506605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -1376,13 +1382,13 @@
         <v>532677</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -1391,13 +1397,13 @@
         <v>1039281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,7 +1459,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1465,13 +1471,13 @@
         <v>69899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -1480,13 +1486,13 @@
         <v>87785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -1495,13 +1501,13 @@
         <v>157684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1522,13 @@
         <v>645362</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>982</v>
@@ -1531,13 +1537,13 @@
         <v>645993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1567</v>
@@ -1546,13 +1552,13 @@
         <v>1291354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1626,13 @@
         <v>92583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -1635,13 +1641,13 @@
         <v>110893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>296</v>
@@ -1650,13 +1656,13 @@
         <v>203476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>498886</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
@@ -1686,13 +1692,13 @@
         <v>472376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1341</v>
@@ -1701,13 +1707,13 @@
         <v>971262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>110047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>458</v>
@@ -1790,13 +1796,13 @@
         <v>237265</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>632</v>
@@ -1805,13 +1811,13 @@
         <v>347312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>570266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1196</v>
@@ -1841,13 +1847,13 @@
         <v>760090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2026</v>
@@ -1856,13 +1862,13 @@
         <v>1330356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1936,13 @@
         <v>351244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>909</v>
@@ -1945,13 +1951,13 @@
         <v>544360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1334</v>
@@ -1960,13 +1966,13 @@
         <v>895603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>2988821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4350</v>
@@ -1996,13 +2002,13 @@
         <v>3199152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>7256</v>
@@ -2011,13 +2017,13 @@
         <v>6187973</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44F2A1D-493B-4350-900B-F0BCE23FDAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E35563E-0000-4AAC-ACC2-29B0968F4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FC3C6D4-25A8-460A-B901-EF8401BF3C7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84FCF4F9-29B8-45BF-9817-00844BC5DE31}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53112B91-BA34-4EF7-8E10-1E0949D2E009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870CAD63-4E98-4E5D-8D80-004048AA7555}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E35563E-0000-4AAC-ACC2-29B0968F4416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F271AD14-6936-4D8B-B1C8-D3D2C5D4FB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84FCF4F9-29B8-45BF-9817-00844BC5DE31}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2C4BD94-8CF9-44B3-B5BA-01F625E61B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>97,71%</t>
   </si>
   <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,49 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>10,34%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>89,66%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +245,55 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +359,109 @@
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870CAD63-4E98-4E5D-8D80-004048AA7555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F2AFE-C05E-47AF-8F58-7BAA583E92DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1334,10 +1328,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -1346,13 +1340,13 @@
         <v>92625</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1361,13 @@
         <v>506605</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -1382,13 +1376,13 @@
         <v>532677</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
@@ -1397,13 +1391,13 @@
         <v>1039281</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1453,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,13 +1465,13 @@
         <v>69899</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -1486,13 +1480,13 @@
         <v>87785</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -1501,13 +1495,13 @@
         <v>157684</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1516,13 @@
         <v>645362</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>982</v>
@@ -1537,13 +1531,13 @@
         <v>645993</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1567</v>
@@ -1552,13 +1546,13 @@
         <v>1291354</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1620,13 @@
         <v>92583</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -1641,13 +1635,13 @@
         <v>110893</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>296</v>
@@ -1656,13 +1650,13 @@
         <v>203476</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>498886</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
@@ -1692,13 +1686,13 @@
         <v>472376</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1341</v>
@@ -1707,13 +1701,13 @@
         <v>971262</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>110047</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>458</v>
@@ -1796,13 +1790,13 @@
         <v>237265</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>632</v>
@@ -1811,13 +1805,13 @@
         <v>347312</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>570266</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1196</v>
@@ -1847,13 +1841,13 @@
         <v>760090</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>2026</v>
@@ -1862,13 +1856,13 @@
         <v>1330356</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1930,13 @@
         <v>351244</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>909</v>
@@ -1951,13 +1945,13 @@
         <v>544360</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1334</v>
@@ -1966,13 +1960,13 @@
         <v>895603</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>2988821</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4350</v>
@@ -2002,13 +1996,13 @@
         <v>3199152</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>7256</v>
@@ -2017,13 +2011,13 @@
         <v>6187973</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F271AD14-6936-4D8B-B1C8-D3D2C5D4FB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A112719-F798-49F9-B38C-D4D348B37D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2C4BD94-8CF9-44B3-B5BA-01F625E61B4B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F5E905B-9757-4313-849A-898B6C9004F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -65,403 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F2AFE-C05E-47AF-8F58-7BAA583E92DD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53D4C29-156C-4BE5-8C24-992F0E807A5B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>8576</v>
+        <v>7726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>27251</v>
+        <v>23625</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>35828</v>
+        <v>31351</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1105,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>365139</v>
+        <v>387884</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1120,7 @@
         <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>327547</v>
+        <v>289413</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1135,7 @@
         <v>356</v>
       </c>
       <c r="N5" s="7">
-        <v>692684</v>
+        <v>677297</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1156,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>373715</v>
+        <v>395610</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1171,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>354798</v>
+        <v>313038</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1186,7 @@
         <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>728512</v>
+        <v>708648</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1209,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>24198</v>
+        <v>24340</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>34481</v>
+        <v>30355</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1239,7 @@
         <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>58679</v>
+        <v>54694</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1260,7 @@
         <v>281</v>
       </c>
       <c r="D8" s="7">
-        <v>402564</v>
+        <v>397542</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1275,7 @@
         <v>424</v>
       </c>
       <c r="I8" s="7">
-        <v>460470</v>
+        <v>477752</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1290,7 @@
         <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>863034</v>
+        <v>875295</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1311,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>426762</v>
+        <v>421882</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1326,7 @@
         <v>456</v>
       </c>
       <c r="I9" s="7">
-        <v>494951</v>
+        <v>508107</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1341,7 @@
         <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>921713</v>
+        <v>929989</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1364,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>45940</v>
+        <v>42576</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,31 +1379,31 @@
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>46684</v>
+        <v>42122</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>92625</v>
+        <v>84697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,46 +1415,46 @@
         <v>496</v>
       </c>
       <c r="D11" s="7">
-        <v>506605</v>
+        <v>489050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
       </c>
       <c r="I11" s="7">
-        <v>532677</v>
+        <v>496420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1261</v>
       </c>
       <c r="N11" s="7">
-        <v>1039281</v>
+        <v>985471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,7 +1466,7 @@
         <v>542</v>
       </c>
       <c r="D12" s="7">
-        <v>552545</v>
+        <v>531626</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1481,7 @@
         <v>840</v>
       </c>
       <c r="I12" s="7">
-        <v>579361</v>
+        <v>538542</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1496,7 @@
         <v>1382</v>
       </c>
       <c r="N12" s="7">
-        <v>1131906</v>
+        <v>1070168</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1453,7 +1510,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1462,46 +1519,46 @@
         <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>69899</v>
+        <v>64979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>87785</v>
+        <v>79530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>157684</v>
+        <v>144509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,46 +1570,46 @@
         <v>585</v>
       </c>
       <c r="D14" s="7">
-        <v>645362</v>
+        <v>814515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>982</v>
       </c>
       <c r="I14" s="7">
-        <v>645993</v>
+        <v>620726</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1567</v>
       </c>
       <c r="N14" s="7">
-        <v>1291354</v>
+        <v>1435241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,7 +1621,7 @@
         <v>658</v>
       </c>
       <c r="D15" s="7">
-        <v>715261</v>
+        <v>879494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1636,7 @@
         <v>1122</v>
       </c>
       <c r="I15" s="7">
-        <v>733778</v>
+        <v>700256</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1651,7 @@
         <v>1780</v>
       </c>
       <c r="N15" s="7">
-        <v>1449038</v>
+        <v>1579750</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,7 +1665,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1617,46 +1674,46 @@
         <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>92583</v>
+        <v>83673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
       </c>
       <c r="I16" s="7">
-        <v>110893</v>
+        <v>100306</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>296</v>
       </c>
       <c r="N16" s="7">
-        <v>203476</v>
+        <v>183978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,43 +1725,43 @@
         <v>547</v>
       </c>
       <c r="D17" s="7">
-        <v>498886</v>
+        <v>469632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>794</v>
       </c>
       <c r="I17" s="7">
-        <v>472376</v>
+        <v>435015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1341</v>
       </c>
       <c r="N17" s="7">
-        <v>971262</v>
+        <v>904647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -1719,7 +1776,7 @@
         <v>656</v>
       </c>
       <c r="D18" s="7">
-        <v>591469</v>
+        <v>553305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1791,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>583269</v>
+        <v>535321</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1806,7 @@
         <v>1637</v>
       </c>
       <c r="N18" s="7">
-        <v>1174738</v>
+        <v>1088625</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>110047</v>
+        <v>46254</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -1784,10 +1841,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="I19" s="7">
-        <v>237265</v>
+        <v>73323</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -1799,10 +1856,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>632</v>
+        <v>232</v>
       </c>
       <c r="N19" s="7">
-        <v>347312</v>
+        <v>119577</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -1820,10 +1877,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>830</v>
+        <v>485</v>
       </c>
       <c r="D20" s="7">
-        <v>570266</v>
+        <v>316059</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -1835,10 +1892,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>1196</v>
+        <v>658</v>
       </c>
       <c r="I20" s="7">
-        <v>760090</v>
+        <v>526187</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -1850,10 +1907,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>2026</v>
+        <v>1143</v>
       </c>
       <c r="N20" s="7">
-        <v>1330356</v>
+        <v>842246</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1871,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1004</v>
+        <v>562</v>
       </c>
       <c r="D21" s="7">
-        <v>680313</v>
+        <v>362313</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1654</v>
+        <v>813</v>
       </c>
       <c r="I21" s="7">
-        <v>997355</v>
+        <v>599510</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2658</v>
+        <v>1375</v>
       </c>
       <c r="N21" s="7">
-        <v>1677668</v>
+        <v>961823</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,55 +1975,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7">
-        <v>351244</v>
+        <v>54081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>909</v>
+        <v>303</v>
       </c>
       <c r="I22" s="7">
-        <v>544360</v>
+        <v>138222</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1334</v>
+        <v>400</v>
       </c>
       <c r="N22" s="7">
-        <v>895603</v>
+        <v>192303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2906</v>
+        <v>345</v>
       </c>
       <c r="D23" s="7">
-        <v>2988821</v>
+        <v>218241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>4350</v>
+        <v>538</v>
       </c>
       <c r="I23" s="7">
-        <v>3199152</v>
+        <v>269310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>7256</v>
+        <v>883</v>
       </c>
       <c r="N23" s="7">
-        <v>6187973</v>
+        <v>487551</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>442</v>
+      </c>
+      <c r="D24" s="7">
+        <v>272322</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>841</v>
+      </c>
+      <c r="I24" s="7">
+        <v>407532</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1283</v>
+      </c>
+      <c r="N24" s="7">
+        <v>679854</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>425</v>
+      </c>
+      <c r="D25" s="7">
+        <v>323628</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>909</v>
+      </c>
+      <c r="I25" s="7">
+        <v>487482</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N25" s="7">
+        <v>811110</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2906</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3092925</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4350</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3114823</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7256</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6207748</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3331</v>
       </c>
-      <c r="D24" s="7">
-        <v>3340065</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3416553</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5259</v>
       </c>
-      <c r="I24" s="7">
-        <v>3743512</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3602305</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8590</v>
       </c>
-      <c r="N24" s="7">
-        <v>7083576</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7018858</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
